--- a/data/haver_backup.xlsx
+++ b/data/haver_backup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsalwati\Downloads\Hutchins Fiscal Impact Measure\fim\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EAsdourian\Desktop\Hutchins Centerfim\fim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95416390-4D0B-4AEB-AA51-44023AD99B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40B4F33-0074-4A01-A0E8-12A176F2E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5C12139C-2750-4E38-8404-6DBFAC9F1AF7}"/>
+    <workbookView xWindow="10" yWindow="1140" windowWidth="17510" windowHeight="9230" activeTab="1" xr2:uid="{5C12139C-2750-4E38-8404-6DBFAC9F1AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="7" r:id="rId1"/>
@@ -973,13 +973,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>148</v>
       </c>
@@ -987,25 +987,25 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>147</v>
       </c>
@@ -1029,9 +1029,9 @@
       <selection activeCell="CS12" sqref="CS12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:100" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>44682</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>287.03300000000002</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>1206892</v>
       </c>
     </row>
-    <row r="6" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>44713</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>291.38900000000001</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1214402</v>
       </c>
     </row>
-    <row r="8" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>44743</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>291.02800000000002</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>336811</v>
       </c>
     </row>
-    <row r="10" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>44774</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>290.97300000000001</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>342774</v>
       </c>
     </row>
-    <row r="12" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>44805</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>291.79500000000002</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>348166</v>
       </c>
     </row>
-    <row r="14" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>44835</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>293.03699999999998</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>348475</v>
       </c>
     </row>
-    <row r="16" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>44866</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>44866</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>293.202</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>14263</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>20790.8</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>26955.4</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>20890.5</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>27223.9</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>20990</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>27492.2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>21089.3</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>27760.799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>21188.3</v>
       </c>
@@ -3691,9 +3691,9 @@
       <selection activeCell="K28" sqref="K28:K100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>usecon_new&lt;-usecon%&gt;% mutate_where(date == "2022-09-30",</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>gdppothq=usecon_q3$gdppothq,</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>gdppotq=usecon_q3$gdppotq,</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>recessq=usecon_q3$recessq,</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>lasgova=usecon_q3$lasgova,</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>lalgova=usecon_q3$lalgova,</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>cpgs=usecon_q3$cpgs,</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>cpi_new&lt;-cpi%&gt;% mutate_where(date == "2022-09-30",</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>wla_new&lt;-wla%&gt;% mutate_where(date == "2022-09-30",</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>ctc_new&lt;-ctc%&gt;% mutate_where(date == "2022-09-30",</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>state_ui_new&lt;-state_ui%&gt;% mutate_where(date == "2022-09-30",</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>lwcl=state_ui_q3$lwcl,</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>lufp=state_ui_q3$lufp,</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>lulp=state_ui_q3$lulp,</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>luwc=state_ui_q3$luwc,</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>luwp=state_ui_q3$luwp,</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>lubp=state_ui_q3$lubp,</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>luwb=state_ui_q3$luwb,</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>luex=state_ui_q3$luex,</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>lud=state_ui_q3$lud,</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>luwby=state_ui_q3$luwby,</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>lubpt=state_ui_q3$lubpt,</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>lufpt=state_ui_q3$lufpt,</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>lulpt=state_ui_q3$lulpt,</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>lasgova=state_ui_q3$lasgova,</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>lalgova=state_ui_q3$lalgova,</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>cpgs=state_ui_q3$cpgs,</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>usna_new&lt;-usna%&gt;% mutate_where(date == "2022-09-30",</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>gdph=usna_q3$gdph,</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>jgdp=usna_q3$jgdp,</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>c=usna_q3$c,</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>ch=usna_q3$ch,</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>jc=usna_q3$jc,</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>jgf=usna_q3$jgf,</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>jgs=usna_q3$jgs,</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>jgse=usna_q3$jgse,</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>jgsi=usna_q3$jgsi,</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>yptmr=usna_q3$yptmr,</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>yptmd=usna_q3$yptmd,</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>yptu=usna_q3$yptu,</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>gtfp=usna_q3$gtfp,</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>ypog=usna_q3$ypog,</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>yptx=usna_q3$yptx,</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>ytpi=usna_q3$ytpi,</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>yctlg=usna_q3$yctlg,</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>g=usna_q3$g,</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>grcsi=usna_q3$grcsi,</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>dc=usna_q3$dc,</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>gf=usna_q3$gf,</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>gs=usna_q3$gs,</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>gfh=usna_q3$gfh,</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>gsh=usna_q3$gsh,</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>gfrpt=usna_q3$gfrpt,</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>gfrpri=usna_q3$gfrpri,</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>gfrcp=usna_q3$gfrcp,</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>gfrs=usna_q3$gfrs,</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>gftfp=usna_q3$gftfp,</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>gfeg=usna_q3$gfeg,</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>gsrpt=usna_q3$gsrpt,</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>gsrpri=usna_q3$gsrpri,</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>gsrcp=usna_q3$gsrcp,</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>gsrs=usna_q3$gsrs,</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>gstfp=usna_q3$gstfp,</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>gset=usna_q3$gset,</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>gfeghhx=usna_q3$gfeghhx,</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>gfeghdx=usna_q3$gfeghdx,</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>gfeigx=usna_q3$gfeigx,</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>gfsub=usna_q3$gfsub,</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>gssub=usna_q3$gssub,</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>gsub=usna_q3$gsub,</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>gftfpe=usna_q3$gftfpe,</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>gftfpr=usna_q3$gftfpr,</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>gftfpp=usna_q3$gftfpp,</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>gftfpv=usna_q3$gftfpv,</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>gfsubp=usna_q3$gfsubp,</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>gfsubg=usna_q3$gfsubg,</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>gfsube=usna_q3$gfsube,</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>108</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>gfsubs=usna_q3$gfsubs,</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>gfsubf=usna_q3$gfsubf,</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>110</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>gfsubv=usna_q3$gfsubv,</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>111</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>gfsubk=usna_q3$gfsubk,</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>gfegc=usna_q3$gfegc,</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>gfege=usna_q3$gfege,</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>gfegv=usna_q3$gfegv,</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>yptue=usna_q3$yptue,</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>yptup=usna_q3$yptup,</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>117</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>yptuc=usna_q3$yptuc,</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>gftfpu=usna_q3$gftfpu,</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>yptub=usna_q3$yptub,</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>120</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>yptol=usna_q3$yptol,</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>121</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>gfctp=usna_q3$gfctp,</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>122</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>gftffx=usna_q3$gftffx,</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>ylwsd=usna_q3$ylwsd,</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>yop=usna_q3$yop,</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>125</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>yri=usna_q3$yri,</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>ypiar=usna_q3$ypiar,</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>127</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>ycpd=usna_q3$ycpd,</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>128</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>gfsubr=usna_q3$gfsubr,</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>129</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>gfsubd=usna_q3$gfsubd,</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>130</v>
       </c>
@@ -7429,16 +7429,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3499A440-30EE-47E1-A319-5A3A338EA407}">
   <dimension ref="A1:CV27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>55</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>44652</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>284.01600000000002</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>1206892</v>
       </c>
     </row>
-    <row r="6" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
         <v>44682</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>287.03300000000002</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>1214637</v>
       </c>
     </row>
-    <row r="8" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>44713</v>
       </c>
@@ -9385,7 +9385,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>291.38900000000001</v>
       </c>
@@ -9461,7 +9461,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>44743</v>
       </c>
@@ -9537,7 +9537,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>291.02800000000002</v>
       </c>
@@ -9613,7 +9613,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>44774</v>
       </c>
@@ -9689,7 +9689,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>290.97300000000001</v>
       </c>
@@ -9765,7 +9765,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>44805</v>
       </c>
@@ -9841,7 +9841,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>291.79500000000002</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9945,7 +9945,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9973,7 +9973,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -9983,7 +9983,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9993,35 +9993,35 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
@@ -10042,12 +10042,12 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>55</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>44652</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
       <c r="Y5" s="3">
         <v>20101.2</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>1206892</v>
       </c>
     </row>
-    <row r="6" spans="1:100" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>44682</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>287.03300000000002</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1214402</v>
       </c>
     </row>
-    <row r="8" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>44713</v>
       </c>
@@ -11922,7 +11922,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>291.38900000000001</v>
       </c>
@@ -11998,7 +11998,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>44743</v>
       </c>
@@ -12074,7 +12074,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>291.02800000000002</v>
       </c>
@@ -12150,7 +12150,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>44774</v>
       </c>
@@ -12226,7 +12226,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>290.97300000000001</v>
       </c>
@@ -12302,7 +12302,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>44805</v>
       </c>
@@ -12378,7 +12378,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>291.79500000000002</v>
       </c>
@@ -12454,7 +12454,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -12482,7 +12482,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -12510,7 +12510,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -12520,7 +12520,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -12530,35 +12530,35 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
@@ -12579,15 +12579,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>readme!B6</f>
         <v>2022-09-30</v>
@@ -12660,13 +12660,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>usecon!A2</f>
         <v>2022-09-30</v>
@@ -12700,12 +12700,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>cpi!A2</f>
         <v>2022-09-30</v>
@@ -12736,12 +12736,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>wla!A2</f>
         <v>2022-09-30</v>
@@ -12772,12 +12772,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>ctc!A2</f>
         <v>2022-09-30</v>
@@ -12920,12 +12920,12 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>state_ui!A2</f>
         <v>2022-09-30</v>
